--- a/media/ViewUploadedBills/mob_1899_34212553900001_07152025.xlsx
+++ b/media/ViewUploadedBills/mob_1899_34212553900001_07152025.xlsx
@@ -64,7 +64,7 @@
     <t>OneSmarter</t>
   </si>
   <si>
-    <t>BABW</t>
+    <t>OSI</t>
   </si>
   <si>
     <t>Verizon</t>
